--- a/001_input/02_market_characterization.xlsx
+++ b/001_input/02_market_characterization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nv5inc-my.sharepoint.com/personal/andrewj_johnson_nv5_com/Documents/Documents/GitHub/market_inputs/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nv5inc-my.sharepoint.com/personal/andrewj_johnson_nv5_com/Documents/Documents/GitHub/Potential_Study_Tool_Prototype/001_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_0FEFC881A94BB305686407648BA328F33CED4083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CD19FA-1B96-4B0E-A811-589F20DC1716}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="11_0FEFC881A94BB305686407648BA328F33CED4083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0E91CB-A717-4F86-80D3-46A7BF45668B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-3420" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_building_type_count" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>single_family</t>
   </si>
@@ -172,12 +172,6 @@
   </si>
   <si>
     <t>test_utility_2</t>
-  </si>
-  <si>
-    <t>multifamily</t>
-  </si>
-  <si>
-    <t>multifamily_li</t>
   </si>
   <si>
     <t>insulation_natural_gas_efficient_residential</t>
@@ -585,7 +579,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +775,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -789,7 +784,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,16 +959,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C04C4BE-F391-4F13-A40F-522BD97AD2C9}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G20"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,53 +1008,53 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -1070,41 +1066,41 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F5" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G5" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1113,44 +1109,44 @@
         <v>9</v>
       </c>
       <c r="D6" s="3">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="3">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="3">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="3">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1159,67 +1155,67 @@
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="3">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G8" s="3">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -1242,7 +1238,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1265,7 +1261,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1288,30 +1284,30 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
@@ -1320,21 +1316,21 @@
         <v>15</v>
       </c>
       <c r="D15" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G15" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -1343,21 +1339,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E16" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G16" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>31</v>
+      <c r="A17" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
@@ -1366,21 +1362,21 @@
         <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E17" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F17" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="G17" s="3">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
@@ -1389,21 +1385,21 @@
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="3">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="3">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="3">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>14</v>
@@ -1424,41 +1420,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1606,15 +1577,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F24D1065-9B3E-4F3B-A1F3-390BA331B399}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD392A7-7BA8-4912-9645-25D1BF77DA47}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1638,10 +1613,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD392A7-7BA8-4912-9645-25D1BF77DA47}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F24D1065-9B3E-4F3B-A1F3-390BA331B399}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/001_input/02_market_characterization.xlsx
+++ b/001_input/02_market_characterization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nv5inc-my.sharepoint.com/personal/andrewj_johnson_nv5_com/Documents/Documents/GitHub/Potential_Study_Tool_Prototype/001_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_0FEFC881A94BB305686407648BA328F33CED4083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B0E91CB-A717-4F86-80D3-46A7BF45668B}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_0FEFC881A94BB305686407648BA328F33CED4083" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20835604-8C96-4590-9B10-72B4D72CF65B}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-3420" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,7 +969,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,16 +1201,16 @@
         <v>13</v>
       </c>
       <c r="D10" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G10" s="3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1247,16 +1247,16 @@
         <v>13</v>
       </c>
       <c r="D12" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F12" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1427,9 +1427,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1577,19 +1580,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD392A7-7BA8-4912-9645-25D1BF77DA47}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F24D1065-9B3E-4F3B-A1F3-390BA331B399}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1613,9 +1612,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F24D1065-9B3E-4F3B-A1F3-390BA331B399}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD392A7-7BA8-4912-9645-25D1BF77DA47}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>